--- a/extractions/samples_for_sequencing.xlsx
+++ b/extractions/samples_for_sequencing.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +415,11 @@
           <t>Temperature</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>geno</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,6 +462,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -499,6 +509,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -541,6 +556,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -583,6 +603,11 @@
           <t>High</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -667,6 +697,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -709,6 +744,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -751,6 +791,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -793,6 +838,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -835,6 +885,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -877,6 +932,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -919,6 +979,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -961,6 +1026,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1003,6 +1073,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1045,6 +1120,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1087,6 +1167,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1129,6 +1214,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1171,6 +1261,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1213,6 +1308,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1255,6 +1355,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1297,6 +1402,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1339,6 +1449,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1381,6 +1496,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1423,6 +1543,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1465,6 +1590,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1507,6 +1637,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1549,6 +1684,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1591,6 +1731,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1633,6 +1778,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1675,6 +1825,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1717,6 +1872,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1759,6 +1919,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1801,6 +1966,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1843,6 +2013,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1885,6 +2060,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1927,6 +2107,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1969,6 +2154,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2011,6 +2201,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2053,6 +2248,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2095,6 +2295,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2137,6 +2342,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2179,6 +2389,11 @@
           <t>High</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2221,6 +2436,11 @@
           <t>High</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2263,6 +2483,11 @@
           <t>High</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2305,6 +2530,11 @@
           <t>High</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2347,6 +2577,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2389,6 +2624,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2431,6 +2671,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2473,6 +2718,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2515,6 +2765,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2557,6 +2812,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2599,6 +2859,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2641,6 +2906,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2683,6 +2953,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2725,6 +3000,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2767,6 +3047,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2809,6 +3094,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2851,6 +3141,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2893,6 +3188,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2935,6 +3235,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2977,6 +3282,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3019,6 +3329,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3061,6 +3376,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3103,6 +3423,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3145,6 +3470,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3187,6 +3517,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3229,6 +3564,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3271,6 +3611,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3313,6 +3658,11 @@
           <t>High</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3355,6 +3705,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3397,6 +3752,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3439,6 +3799,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3481,6 +3846,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3523,6 +3893,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3565,6 +3940,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3607,6 +3987,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3649,6 +4034,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3691,6 +4081,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3733,6 +4128,11 @@
           <t>Medium</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3775,6 +4175,11 @@
           <t>High</t>
         </is>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3817,6 +4222,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3859,6 +4269,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3901,6 +4316,11 @@
           <t>Low</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3943,6 +4363,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3985,6 +4410,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4027,6 +4457,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4069,6 +4504,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4111,6 +4551,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4153,6 +4598,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4195,6 +4645,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4237,6 +4692,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4279,6 +4739,11 @@
           <t>Control</t>
         </is>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4319,6 +4784,11 @@
       <c r="J94" t="inlineStr">
         <is>
           <t>Low</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>09</t>
         </is>
       </c>
     </row>
